--- a/data/output/Pedido_Semana_07_15022026_deco_interior.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_deco_interior.xlsx
@@ -1363,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>2.7</v>
@@ -2497,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U25" s="8" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="2" t="n">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="2" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S54" s="2" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>4</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="2" t="n">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56" s="6" t="n">
         <v>2.28</v>
@@ -5008,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S56" s="2" t="n">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>0</v>
@@ -6466,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="2" t="n">
         <v>0</v>
@@ -6527,7 +6527,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" s="6" t="n">
         <v>72.8</v>
@@ -6547,7 +6547,7 @@
         <v>10</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S75" s="2" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>0</v>
       </c>
       <c r="R79" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T79" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" s="8" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M85" s="6" t="n">
         <v>114.6</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S85" s="2" t="n">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>3</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M95" s="6" t="n">
         <v>104</v>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="R95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" s="2" t="n">
         <v>0</v>
@@ -8633,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="L101" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M101" s="6" t="n">
         <v>8.25</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S101" s="2" t="n">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>4</v>
       </c>
       <c r="R103" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S103" s="2" t="n">
         <v>0</v>
@@ -8977,7 +8977,7 @@
         <v>2</v>
       </c>
       <c r="R105" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105" s="2" t="n">
         <v>0</v>
@@ -9463,13 +9463,13 @@
         <v>0</v>
       </c>
       <c r="R111" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T111" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U111" s="8" t="n">
         <v>0</v>
@@ -9686,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M114" s="6" t="n">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>4</v>
       </c>
       <c r="R114" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S114" s="2" t="n">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" s="2" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="2" t="n">
         <v>0</v>
@@ -10516,13 +10516,13 @@
         <v>0</v>
       </c>
       <c r="R124" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T124" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U124" s="8" t="n">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="R130" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S130" s="2" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         </is>
       </c>
       <c r="C146" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_15022026_deco_interior.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_deco_interior.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>3.85</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>7.82</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>5.2</v>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>6.9</v>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>3.45</v>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>8.35</v>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>6.3</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>3.45</v>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>8.1</v>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>3.45</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>5.9</v>
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>11.8</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>1.2</v>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>1.08</v>
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>2.7</v>
@@ -2558,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>2.3</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>0.58</v>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>4.85</v>
@@ -2801,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>168.75</v>
@@ -2882,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>86</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>16.62</v>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>16.62</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>34</v>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>51</v>
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>14.65</v>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>4.47</v>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>6.88</v>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>5.05</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>11.75</v>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>5.52</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>7.68</v>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="6" t="n">
         <v>17.4</v>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="6" t="n">
         <v>17.7</v>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>6.25</v>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>3.28</v>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>5</v>
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>13.45</v>
@@ -4421,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>68.59999999999999</v>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>7.15</v>
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>2.78</v>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>9.699999999999999</v>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="6" t="n">
         <v>0.68</v>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="6" t="n">
         <v>1.42</v>
@@ -4988,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M56" s="6" t="n">
         <v>2.28</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="6" t="n">
         <v>5.32</v>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="6" t="n">
         <v>5.72</v>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="6" t="n">
         <v>5.55</v>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="6" t="n">
         <v>19.05</v>
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="6" t="n">
         <v>16.65</v>
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="6" t="n">
         <v>5.55</v>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="6" t="n">
         <v>5.55</v>
@@ -5636,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64" s="6" t="n">
         <v>13</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="6" t="n">
         <v>14.95</v>
@@ -5798,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="6" t="n">
         <v>6.6</v>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="6" t="n">
         <v>17.45</v>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="6" t="n">
         <v>8.880000000000001</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="6" t="n">
         <v>19.33</v>
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="6" t="n">
         <v>15.92</v>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="6" t="n">
         <v>1.35</v>
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="6" t="n">
         <v>62.35</v>
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="6" t="n">
         <v>5.22</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="6" t="n">
         <v>4.4</v>
@@ -6527,7 +6527,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" s="6" t="n">
         <v>72.8</v>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="6" t="n">
         <v>9.449999999999999</v>
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="6" t="n">
         <v>96.84999999999999</v>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" s="6" t="n">
         <v>5.5</v>
@@ -6851,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="6" t="n">
         <v>7.72</v>
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="6" t="n">
         <v>43.75</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="6" t="n">
         <v>46.2</v>
@@ -7094,7 +7094,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M82" s="6" t="n">
         <v>28.33</v>
@@ -7175,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="6" t="n">
         <v>0</v>
@@ -7256,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="6" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M85" s="6" t="n">
         <v>114.6</v>
@@ -7418,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="6" t="n">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="6" t="n">
         <v>1.88</v>
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="6" t="n">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" s="6" t="n">
         <v>7.4</v>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="6" t="n">
         <v>3.98</v>
@@ -7823,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="6" t="n">
         <v>6.3</v>
@@ -7904,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" s="6" t="n">
         <v>13.25</v>
@@ -7985,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="6" t="n">
         <v>29.25</v>
@@ -8066,7 +8066,7 @@
         <v>2</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94" s="6" t="n">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>3</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M95" s="6" t="n">
         <v>104</v>
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" s="6" t="n">
         <v>6.25</v>
@@ -8309,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" s="6" t="n">
         <v>20.25</v>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" s="6" t="n">
         <v>40.85</v>
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" s="6" t="n">
         <v>16.25</v>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="6" t="n">
         <v>6.5</v>
@@ -8633,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="L101" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101" s="6" t="n">
         <v>8.25</v>
@@ -8714,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" s="6" t="n">
         <v>8</v>
@@ -8795,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" s="6" t="n">
         <v>14.25</v>
@@ -8876,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" s="6" t="n">
         <v>9.949999999999999</v>
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" s="6" t="n">
         <v>7.38</v>
@@ -9038,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" s="6" t="n">
         <v>51.7</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="6" t="n">
         <v>5.65</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="6" t="n">
         <v>18.47</v>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="6" t="n">
         <v>18.47</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" s="6" t="n">
         <v>7</v>
@@ -9443,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="6" t="n">
         <v>3.5</v>
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="6" t="n">
         <v>8.119999999999999</v>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" s="6" t="n">
         <v>6.62</v>
@@ -9686,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="6" t="n">
         <v>0</v>
@@ -9767,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="6" t="n">
         <v>5.38</v>
@@ -9848,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" s="6" t="n">
         <v>9.880000000000001</v>
@@ -9929,7 +9929,7 @@
         <v>2</v>
       </c>
       <c r="L117" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M117" s="6" t="n">
         <v>9.380000000000001</v>
@@ -10010,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" s="6" t="n">
         <v>2.62</v>
@@ -10091,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="6" t="n">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" s="6" t="n">
         <v>8.6</v>
@@ -10253,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" s="6" t="n">
         <v>4.12</v>
@@ -10334,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" s="6" t="n">
         <v>4</v>
@@ -10415,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" s="6" t="n">
         <v>4</v>
@@ -10496,7 +10496,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" s="6" t="n">
         <v>10.5</v>
@@ -10577,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" s="6" t="n">
         <v>6</v>
@@ -10658,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" s="6" t="n">
         <v>7</v>
@@ -10739,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" s="6" t="n">
         <v>4.75</v>
@@ -10820,7 +10820,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" s="6" t="n">
         <v>44.5</v>
@@ -10901,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" s="6" t="n">
         <v>70</v>
@@ -10982,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" s="6" t="n">
         <v>9.380000000000001</v>
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" s="6" t="n">
         <v>12.38</v>
@@ -11144,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" s="6" t="n">
         <v>15.62</v>
@@ -11311,7 +11311,7 @@
         </is>
       </c>
       <c r="C146" s="5" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
